--- a/biology/Botanique/Bulbophyllum_porphyrostachys/Bulbophyllum_porphyrostachys.xlsx
+++ b/biology/Botanique/Bulbophyllum_porphyrostachys/Bulbophyllum_porphyrostachys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulbophyllum porphyrostachys Summerh. est une espèce d'herbes épiphytes appartenant à la famille des Orchidaceae et au genre Bulbophyllum.
 Découverte par Summerhayes, elle a été décrite par ce même auteur en 1951.
@@ -512,7 +524,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pseudobulbes ellipsoïdes, comportant 4 à 5 angles, espacés de 3 à 7 cm, bifoliés.
 Feuilles lancéolées, épaisses.
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cameroun
 Guinée équatoriale
@@ -581,7 +597,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Forêt pluviale, forêt semi-décidue, relique de forêt dans la savane, plantation de palmiers à huile.</t>
         </is>
@@ -611,7 +629,9 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Risque faible / quasi menacé.</t>
         </is>
